--- a/excel-basic/excel_first/principiantes.xlsx
+++ b/excel-basic/excel_first/principiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\github\DataScience\excel-basic\excel_first\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B84A04-9312-4293-84FE-FB2C3D76C83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038299B6-45EF-4A18-9DBD-8EA45981D688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="240" windowWidth="20730" windowHeight="11400" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="2310" windowWidth="15375" windowHeight="8055" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstDay" sheetId="1" r:id="rId1"/>
@@ -310,9 +310,9 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -593,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -706,106 +706,16 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -813,37 +723,128 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1234,12 +1235,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1424,12 +1425,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1444,12 +1445,12 @@
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="49"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="68"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
@@ -1616,12 +1617,12 @@
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
@@ -1787,15 +1788,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1816,15 +1817,15 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="54"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1991,12 +1992,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2046,15 +2047,15 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -2072,13 +2073,13 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="63">
+      <c r="H5" s="85"/>
+      <c r="I5" s="87">
         <v>0</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
@@ -2097,13 +2098,13 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63" t="s">
+      <c r="H6" s="86"/>
+      <c r="I6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -2122,11 +2123,11 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -2149,11 +2150,11 @@
         <v>13</v>
       </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -2393,35 +2394,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="K3" s="75" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="K3" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="45" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="46" t="s">
         <v>62</v>
       </c>
       <c r="L4" t="s">
@@ -2429,28 +2430,28 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="46" t="s">
         <v>64</v>
       </c>
       <c r="L5" t="s">
@@ -2458,30 +2459,30 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="43">
         <v>5</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="43">
         <v>5</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="43">
         <v>5</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="44">
         <f>AVERAGE(C6:E6)</f>
         <v>5</v>
       </c>
-      <c r="G6" s="73" t="str">
+      <c r="G6" s="43" t="str">
         <f>IF(F6&lt;2,"DEFICIENTE",IF(F6&lt;3,"INSUFICIENTE",IF(F6&lt;4,"ACEPTABLE",IF(F6&lt;5,"SOBRESALIENTE",IF(F6=5,"EXCELLENTE","ERROR")))))</f>
         <v>EXCELLENTE</v>
       </c>
-      <c r="K6" s="76" t="s">
+      <c r="K6" s="46" t="s">
         <v>67</v>
       </c>
       <c r="L6" t="s">
@@ -2489,30 +2490,30 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="43">
         <v>2</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="43">
         <v>2</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="43">
         <v>4</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="44">
         <f t="shared" ref="F7:F9" si="0">AVERAGE(C7:E7)</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="G7" s="73" t="str">
+      <c r="G7" s="43" t="str">
         <f t="shared" ref="G7:G9" si="1">IF(F7&lt;2,"DEFICIENTE",IF(F7&lt;3,"INSUFICIENTE",IF(F7&lt;4,"ACEPTABLE",IF(F7&lt;5,"SOBRESALIENTE",IF(F7=5,"EXCELLENTE","ERROR")))))</f>
         <v>INSUFICIENTE</v>
       </c>
-      <c r="K7" s="76" t="s">
+      <c r="K7" s="46" t="s">
         <v>66</v>
       </c>
       <c r="L7" t="s">
@@ -2520,30 +2521,30 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="43">
         <v>1</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="43">
         <v>5</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="43">
         <v>4</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="44">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="G8" s="73" t="str">
+      <c r="G8" s="43" t="str">
         <f t="shared" si="1"/>
         <v>ACEPTABLE</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="46" t="s">
         <v>71</v>
       </c>
       <c r="L8" t="s">
@@ -2551,26 +2552,26 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="43">
         <v>1</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="43">
         <v>1</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="43">
         <v>1</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="73" t="str">
+      <c r="G9" s="43" t="str">
         <f t="shared" si="1"/>
         <v>DEFICIENTE</v>
       </c>
@@ -2590,7 +2591,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2602,11 +2603,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2614,36 +2615,36 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="81"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="77">
+      <c r="B4" s="47">
         <v>1000000</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="47">
         <f>IF(AND(B4&gt;=0,B4&lt;=100000),B4*J5,IF(AND(B4&gt;100000,B4&lt;=1000000),B4*J6,IF(B4&gt;1000000,B4*J7,"ERROR")))</f>
         <v>100000</v>
       </c>
-      <c r="D4" s="85">
+      <c r="D4" s="54">
         <f>B4-C4</f>
         <v>900000</v>
       </c>
-      <c r="I4" s="80" t="s">
+      <c r="I4" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="50" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2651,97 +2652,100 @@
       <c r="B5" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="82">
+      <c r="J5" s="51">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="84">
+      <c r="J6" s="53">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="84">
+      <c r="J7" s="53">
         <v>0.15</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="94"/>
+    </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="89"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="90" t="s">
+      <c r="I12" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="91" t="s">
+      <c r="J12" s="58" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I13" s="92" t="s">
+      <c r="I13" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="53">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="92" t="s">
+      <c r="I14" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="84">
+      <c r="J14" s="53">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="87">
+      <c r="B15" s="55">
         <v>1000000</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="47">
         <f>IF(OR(C12="EXITO",C12="ALKOSTO"),B15*J13,IF(OR(C12="VISA",C12="MASTERCARD"),B15*J14,0))</f>
         <v>50000</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="60">
         <f>B15-C15</f>
         <v>950000</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="I15" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="84">
+      <c r="J15" s="53">
         <v>0</v>
       </c>
     </row>
@@ -2758,5 +2762,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>